--- a/Data/EC/NIT-9015809411.xlsx
+++ b/Data/EC/NIT-9015809411.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9B29801-1A67-461B-AA26-821249D23983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0678EA40-31BF-4DA1-9893-EFCB325EF14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE5DEA2F-9B52-4307-B0D3-296C9C9BE01A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E2BFC7C-B1E7-4007-B794-FCEC854A9EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,13 +65,13 @@
     <t>CC</t>
   </si>
   <si>
-    <t>20389612</t>
-  </si>
-  <si>
-    <t>YULISA YULIETH TORO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
+    <t>1050960222</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA TORRES ESPINOSA</t>
+  </si>
+  <si>
+    <t>2507</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -434,7 +434,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9AC2E0-9DB4-95AA-3B1A-F28E47DA7F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F611A332-AA65-77F6-A696-688EE5794BE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8960530-03BE-4229-BFDE-31DDAA6DAEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644CFA4B-9B8E-4A6A-9684-AE747F2A7ACA}">
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -797,7 +797,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -892,7 +892,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="21"/>
       <c r="E11" s="7">
-        <v>6933</v>
+        <v>1898</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -963,10 +963,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>6933</v>
+        <v>1898</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
